--- a/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,19; 35,48</t>
+          <t>23,9; 34,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,85; 49,09</t>
+          <t>39,74; 48,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,39; 40,76</t>
+          <t>33,14; 40,7</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,12; 27,61</t>
+          <t>18,91; 27,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,59; 44,14</t>
+          <t>36,54; 44,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,21; 35,4</t>
+          <t>29,09; 34,66</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,8; 34,06</t>
+          <t>24,38; 33,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,83; 46,53</t>
+          <t>37,58; 46,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,38; 39,22</t>
+          <t>32,82; 39,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 37,39</t>
+          <t>24,67; 37,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,27; 46,86</t>
+          <t>35,69; 46,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,88; 41,39</t>
+          <t>32,77; 41,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,32; 28,11</t>
+          <t>18,33; 28,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,14; 40,42</t>
+          <t>23,54; 40,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,59</t>
+          <t>24,15; 33,48</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,57; 34,16</t>
+          <t>24,51; 34,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,24; 48,21</t>
+          <t>38,0; 47,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,59; 39,48</t>
+          <t>32,9; 39,96</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,13; 30,85</t>
+          <t>22,76; 30,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,99; 68,3</t>
+          <t>40,0; 70,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,48; 54,87</t>
+          <t>33,17; 55,77</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,42</t>
+          <t>9,91; 15,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,35; 33,56</t>
+          <t>27,27; 33,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,98; 23,67</t>
+          <t>19,2; 23,65</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,68; 25,31</t>
+          <t>21,61; 25,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,06</t>
+          <t>37,91; 46,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>30,82; 35,79</t>
+          <t>30,77; 36,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,9; 34,98</t>
+          <t>24,19; 35,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,74; 48,64</t>
+          <t>39,85; 49,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,14; 40,7</t>
+          <t>33,39; 40,76</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,91; 27,49</t>
+          <t>19,12; 27,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,54; 44,54</t>
+          <t>36,59; 44,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,09; 34,66</t>
+          <t>29,21; 35,4</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,38; 33,75</t>
+          <t>23,8; 34,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,58; 46,35</t>
+          <t>37,83; 46,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,82; 39,44</t>
+          <t>32,38; 39,22</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,67; 37,4</t>
+          <t>24,5; 37,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,69; 46,85</t>
+          <t>35,27; 46,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,77; 41,33</t>
+          <t>32,88; 41,39</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 28,67</t>
+          <t>18,32; 28,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,54; 40,0</t>
+          <t>24,14; 40,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,15; 33,48</t>
+          <t>24,44; 33,59</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,51; 34,32</t>
+          <t>24,57; 34,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,0; 47,55</t>
+          <t>38,24; 48,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,9; 39,96</t>
+          <t>32,59; 39,48</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,76; 30,7</t>
+          <t>23,13; 30,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,0; 70,13</t>
+          <t>39,99; 68,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,17; 55,77</t>
+          <t>33,48; 54,87</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,91; 15,0</t>
+          <t>10,14; 15,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,27; 33,14</t>
+          <t>27,35; 33,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,2; 23,65</t>
+          <t>18,98; 23,67</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,61; 25,0</t>
+          <t>21,68; 25,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,91; 46,47</t>
+          <t>37,95; 46,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>30,77; 36,55</t>
+          <t>30,82; 35,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>36,17%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,19; 35,48</t>
+          <t>23,41; 35,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,85; 49,09</t>
+          <t>39,09; 48,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,39; 40,76</t>
+          <t>32,04; 40,08</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>31,24%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,12; 27,61</t>
+          <t>18,43; 26,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,59; 44,14</t>
+          <t>36,45; 43,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,21; 35,4</t>
+          <t>28,34; 34,48</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>35,31%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,8; 34,06</t>
+          <t>23,61; 33,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,83; 46,53</t>
+          <t>37,6; 46,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,38; 39,22</t>
+          <t>31,92; 38,77</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>32,98%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 37,39</t>
+          <t>23,91; 37,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,27; 46,86</t>
+          <t>18,51; 43,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,88; 41,39</t>
+          <t>24,59; 38,44</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>27,81%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,32; 28,11</t>
+          <t>18,28; 28,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,14; 40,42</t>
+          <t>17,42; 40,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,59</t>
+          <t>18,57; 32,92</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>35,81%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,57; 34,16</t>
+          <t>24,12; 33,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,24; 48,21</t>
+          <t>38,05; 48,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,59; 39,48</t>
+          <t>32,23; 39,16</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>49,02%</t>
+          <t>54,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>42,88%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,13; 30,85</t>
+          <t>22,7; 30,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,99; 68,3</t>
+          <t>39,79; 78,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,48; 54,87</t>
+          <t>33,08; 64,57</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>18,93%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,42</t>
+          <t>4,53; 14,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,35; 33,56</t>
+          <t>27,63; 33,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,98; 23,67</t>
+          <t>11,67; 22,96</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,68; 25,31</t>
+          <t>17,78; 24,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,06</t>
+          <t>36,74; 50,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>30,82; 35,79</t>
+          <t>28,71; 37,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,41; 35,66</t>
+          <t>23,26; 35,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,09; 48,81</t>
+          <t>38,89; 48,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,04; 40,08</t>
+          <t>31,97; 40,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,43; 26,94</t>
+          <t>18,2; 26,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,45; 43,96</t>
+          <t>36,37; 44,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,34; 34,48</t>
+          <t>28,33; 34,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,61; 33,73</t>
+          <t>23,84; 33,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,6; 46,35</t>
+          <t>37,28; 46,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,92; 38,77</t>
+          <t>32,24; 38,63</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,91; 37,1</t>
+          <t>24,42; 37,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,51; 43,41</t>
+          <t>20,52; 44,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,59; 38,44</t>
+          <t>24,48; 38,48</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,28; 28,1</t>
+          <t>18,38; 28,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 40,35</t>
+          <t>16,11; 39,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,57; 32,92</t>
+          <t>18,82; 32,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,12; 33,95</t>
+          <t>24,59; 34,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,05; 48,15</t>
+          <t>38,26; 48,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,23; 39,16</t>
+          <t>32,32; 39,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,7; 30,79</t>
+          <t>22,62; 31,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,79; 78,48</t>
+          <t>39,4; 75,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,08; 64,57</t>
+          <t>32,93; 65,56</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,53; 14,04</t>
+          <t>4,31; 14,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,63; 33,68</t>
+          <t>27,64; 33,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,67; 22,96</t>
+          <t>12,03; 22,72</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,63</t>
+          <t>17,17; 24,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36,74; 50,76</t>
+          <t>36,85; 52,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,71; 37,94</t>
+          <t>28,71; 38,45</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>90052</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>127327</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>217380</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72442; 111527</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>112647; 141372</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>192158; 240977</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>115416</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>207405</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>322821</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>94353; 136832</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>187304; 227199</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>292750; 357708</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>89583</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>145314</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>234897</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>75362; 105498</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>130163; 161585</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>214463; 256989</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>95148</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>164857</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>260005</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>76340; 116789</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>97614; 209430</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>192996; 303331</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>41135</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>80539</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>121674</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>32845; 50783</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>41700; 102631</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>82349; 141578</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>78217</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>110374</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>188591</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>66300; 92050</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>98361; 123803</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>170246; 206528</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>164916</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>466963</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>631879</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>141199; 194558</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>334625; 640917</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>485308; 966043</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>92432</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>219175</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>311607</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>39996; 133299</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>198347; 241324</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>197986; 374088</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2292</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3165</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>766900</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1521954</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2288854</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>594040; 847131</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1367959; 1946538</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2059043; 2757995</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>